--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H2">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I2">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J2">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N2">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O2">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P2">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q2">
-        <v>136.8649075528157</v>
+        <v>40.77153405907249</v>
       </c>
       <c r="R2">
-        <v>547.4596302112629</v>
+        <v>163.08613623629</v>
       </c>
       <c r="S2">
-        <v>0.03248045422980207</v>
+        <v>0.01964972355842627</v>
       </c>
       <c r="T2">
-        <v>0.01887747960196547</v>
+        <v>0.01167334908238154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H3">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I3">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J3">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O3">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P3">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q3">
-        <v>14.037521929947</v>
+        <v>7.181415741509999</v>
       </c>
       <c r="R3">
-        <v>84.22513157968199</v>
+        <v>43.08849444905999</v>
       </c>
       <c r="S3">
-        <v>0.003331351306174218</v>
+        <v>0.003461062658921508</v>
       </c>
       <c r="T3">
-        <v>0.002904247392186241</v>
+        <v>0.003084180229822696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H4">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I4">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J4">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N4">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O4">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P4">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q4">
-        <v>26.18680901460817</v>
+        <v>10.45907268730167</v>
       </c>
       <c r="R4">
-        <v>157.120854087649</v>
+        <v>62.75443612381</v>
       </c>
       <c r="S4">
-        <v>0.006214591211376227</v>
+        <v>0.005040719995602726</v>
       </c>
       <c r="T4">
-        <v>0.005417834584329805</v>
+        <v>0.004491825339953328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H5">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I5">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J5">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N5">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O5">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P5">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q5">
-        <v>28.34710621351675</v>
+        <v>15.45503090835</v>
       </c>
       <c r="R5">
-        <v>113.388424854067</v>
+        <v>61.82012363339999</v>
       </c>
       <c r="S5">
-        <v>0.006727267802816167</v>
+        <v>0.007448507689114891</v>
       </c>
       <c r="T5">
-        <v>0.003909854826109528</v>
+        <v>0.004424949294543908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H6">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I6">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J6">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N6">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O6">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P6">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q6">
-        <v>79.22400663450351</v>
+        <v>3.469264215913333</v>
       </c>
       <c r="R6">
-        <v>475.344039807021</v>
+        <v>20.81558529548</v>
       </c>
       <c r="S6">
-        <v>0.0188012527637921</v>
+        <v>0.001672001909348521</v>
       </c>
       <c r="T6">
-        <v>0.01639079289172451</v>
+        <v>0.001489934087077577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H7">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I7">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J7">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N7">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O7">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P7">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q7">
-        <v>29.68398130595083</v>
+        <v>11.89846111509833</v>
       </c>
       <c r="R7">
-        <v>178.103887835705</v>
+        <v>71.39076669059</v>
       </c>
       <c r="S7">
-        <v>0.007044531819043343</v>
+        <v>0.005734429107906992</v>
       </c>
       <c r="T7">
-        <v>0.006141370658420644</v>
+        <v>0.005109995000621466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.78396</v>
       </c>
       <c r="I8">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J8">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N8">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O8">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P8">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q8">
-        <v>1353.76576683502</v>
+        <v>788.2951420080199</v>
       </c>
       <c r="R8">
-        <v>8122.594601010121</v>
+        <v>4729.77085204812</v>
       </c>
       <c r="S8">
-        <v>0.3212724708895121</v>
+        <v>0.3799165761206177</v>
       </c>
       <c r="T8">
-        <v>0.2800829603388879</v>
+        <v>0.3385466570600193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.78396</v>
       </c>
       <c r="I9">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J9">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O9">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P9">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q9">
         <v>138.84871571352</v>
@@ -1013,10 +1013,10 @@
         <v>1249.63844142168</v>
       </c>
       <c r="S9">
-        <v>0.03295124686260019</v>
+        <v>0.06691773913290061</v>
       </c>
       <c r="T9">
-        <v>0.04308997939933282</v>
+        <v>0.08944638759693942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>24.78396</v>
       </c>
       <c r="I10">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J10">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N10">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O10">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P10">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q10">
-        <v>259.0204181663066</v>
+        <v>202.2204064571866</v>
       </c>
       <c r="R10">
-        <v>2331.18376349676</v>
+        <v>1819.98365811468</v>
       </c>
       <c r="S10">
-        <v>0.06147010937473745</v>
+        <v>0.09745954319499331</v>
       </c>
       <c r="T10">
-        <v>0.08038377903200107</v>
+        <v>0.1302704512823873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>24.78396</v>
       </c>
       <c r="I11">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J11">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N11">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O11">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P11">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q11">
-        <v>280.38846967318</v>
+        <v>298.8145054092</v>
       </c>
       <c r="R11">
-        <v>1682.33081803908</v>
+        <v>1792.8870324552</v>
       </c>
       <c r="S11">
-        <v>0.06654112451922381</v>
+        <v>0.1440127913271906</v>
       </c>
       <c r="T11">
-        <v>0.05801005946143506</v>
+        <v>0.1283309340580695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>24.78396</v>
       </c>
       <c r="I12">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J12">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N12">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O12">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P12">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q12">
-        <v>783.62488976156</v>
+        <v>67.07631171749333</v>
       </c>
       <c r="R12">
-        <v>7052.62400785404</v>
+        <v>603.68680545744</v>
       </c>
       <c r="S12">
-        <v>0.1859679944284623</v>
+        <v>0.03232723548390214</v>
       </c>
       <c r="T12">
-        <v>0.2431882800147655</v>
+        <v>0.04321058171567827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.78396</v>
       </c>
       <c r="I13">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J13">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N13">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O13">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P13">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q13">
-        <v>293.6118427571333</v>
+        <v>230.0501884676133</v>
       </c>
       <c r="R13">
-        <v>2642.5065848142</v>
+        <v>2070.45169620852</v>
       </c>
       <c r="S13">
-        <v>0.06967926395829951</v>
+        <v>0.1108720265811676</v>
       </c>
       <c r="T13">
-        <v>0.09111879926861358</v>
+        <v>0.1481984058597919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H14">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I14">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J14">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N14">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O14">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P14">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q14">
-        <v>264.1854888570975</v>
+        <v>1.464315296981</v>
       </c>
       <c r="R14">
-        <v>1056.74195542839</v>
+        <v>8.785891781885999</v>
       </c>
       <c r="S14">
-        <v>0.06269587166227772</v>
+        <v>0.0007057225452042771</v>
       </c>
       <c r="T14">
-        <v>0.03643853100262831</v>
+        <v>0.0006288749254650657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H15">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I15">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J15">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O15">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P15">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q15">
-        <v>27.09613194291</v>
+        <v>0.257921541756</v>
       </c>
       <c r="R15">
-        <v>162.57679165746</v>
+        <v>2.321293875804</v>
       </c>
       <c r="S15">
-        <v>0.006430389565248785</v>
+        <v>0.0001243045451251728</v>
       </c>
       <c r="T15">
-        <v>0.005605965990738637</v>
+        <v>0.0001661531406679117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H16">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I16">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J16">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N16">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O16">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P16">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q16">
-        <v>50.547470968495</v>
+        <v>0.3756390452726666</v>
       </c>
       <c r="R16">
-        <v>303.28482581097</v>
+        <v>3.380751407454</v>
       </c>
       <c r="S16">
-        <v>0.01199580554709309</v>
+        <v>0.0001810381573247819</v>
       </c>
       <c r="T16">
-        <v>0.01045785441864066</v>
+        <v>0.0002419867945291449</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H17">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I17">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J17">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N17">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O17">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P17">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q17">
-        <v>54.7174162216275</v>
+        <v>0.5550695772600001</v>
       </c>
       <c r="R17">
-        <v>218.86966488651</v>
+        <v>3.33041746356</v>
       </c>
       <c r="S17">
-        <v>0.01298540703338266</v>
+        <v>0.0002675141860752358</v>
       </c>
       <c r="T17">
-        <v>0.007547054442698721</v>
+        <v>0.0002383840008685215</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H18">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I18">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J18">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N18">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O18">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P18">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q18">
-        <v>152.923297112355</v>
+        <v>0.1245991051813333</v>
       </c>
       <c r="R18">
-        <v>917.53978267413</v>
+        <v>1.121391946632</v>
       </c>
       <c r="S18">
-        <v>0.03629139303375859</v>
+        <v>6.005018032662604E-05</v>
       </c>
       <c r="T18">
-        <v>0.03163856762322121</v>
+        <v>8.026678388063878E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H19">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I19">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J19">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N19">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O19">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P19">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q19">
-        <v>57.29793891477499</v>
+        <v>0.4273348801673333</v>
       </c>
       <c r="R19">
-        <v>343.7876334886499</v>
+        <v>3.846013921506</v>
       </c>
       <c r="S19">
-        <v>0.01359781053930983</v>
+        <v>0.0002059528162466286</v>
       </c>
       <c r="T19">
-        <v>0.01185447050421884</v>
+        <v>0.0002752892680981208</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H20">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I20">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J20">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N20">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O20">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P20">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q20">
-        <v>79.847619711398</v>
+        <v>109.846929753209</v>
       </c>
       <c r="R20">
-        <v>479.085718268388</v>
+        <v>439.3877190128359</v>
       </c>
       <c r="S20">
-        <v>0.01894924713549297</v>
+        <v>0.05294041181440717</v>
       </c>
       <c r="T20">
-        <v>0.01651981328872495</v>
+        <v>0.03145041230921546</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H21">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I21">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J21">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O21">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P21">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q21">
-        <v>8.189555181047998</v>
+        <v>19.34821656068399</v>
       </c>
       <c r="R21">
-        <v>73.70599662943198</v>
+        <v>116.089299364104</v>
       </c>
       <c r="S21">
-        <v>0.001943525750878246</v>
+        <v>0.009324817315315273</v>
       </c>
       <c r="T21">
-        <v>0.002541527029815344</v>
+        <v>0.008309418246581341</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H22">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I22">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J22">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N22">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O22">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P22">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q22">
-        <v>15.27750542516933</v>
+        <v>28.17890102200066</v>
       </c>
       <c r="R22">
-        <v>137.497548826524</v>
+        <v>169.073406132004</v>
       </c>
       <c r="S22">
-        <v>0.003625621239076754</v>
+        <v>0.01358074028954418</v>
       </c>
       <c r="T22">
-        <v>0.004741184609888625</v>
+        <v>0.01210190477176178</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H23">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I23">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J23">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N23">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O23">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P23">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q23">
-        <v>16.537832796782</v>
+        <v>41.63904385013999</v>
       </c>
       <c r="R23">
-        <v>99.22699678069199</v>
+        <v>166.55617540056</v>
       </c>
       <c r="S23">
-        <v>0.003924719132321851</v>
+        <v>0.02006781740679623</v>
       </c>
       <c r="T23">
-        <v>0.003421541067729435</v>
+        <v>0.01192172689933693</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H24">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I24">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J24">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N24">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O24">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P24">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q24">
-        <v>46.219651676044</v>
+        <v>9.346914003005333</v>
       </c>
       <c r="R24">
-        <v>415.976865084396</v>
+        <v>56.08148401803199</v>
       </c>
       <c r="S24">
-        <v>0.01096873776940827</v>
+        <v>0.004504718316885829</v>
       </c>
       <c r="T24">
-        <v>0.01434369650688204</v>
+        <v>0.004014190017059301</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.151194</v>
+      </c>
+      <c r="H25">
+        <v>2.302388</v>
+      </c>
+      <c r="I25">
+        <v>0.1158682409924353</v>
+      </c>
+      <c r="J25">
+        <v>0.08156503369835977</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>27.84666233333333</v>
+      </c>
+      <c r="N25">
+        <v>83.539987</v>
+      </c>
+      <c r="O25">
+        <v>0.1333388313929376</v>
+      </c>
+      <c r="P25">
+        <v>0.1687902380488052</v>
+      </c>
+      <c r="Q25">
+        <v>32.05691059815933</v>
+      </c>
+      <c r="R25">
+        <v>192.341463588956</v>
+      </c>
+      <c r="S25">
+        <v>0.0154497358494866</v>
+      </c>
+      <c r="T25">
+        <v>0.01376738145440497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.240679</v>
+      </c>
+      <c r="I26">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J26">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>95.41999849999999</v>
+      </c>
+      <c r="N26">
+        <v>190.839997</v>
+      </c>
+      <c r="O26">
+        <v>0.4569018340225213</v>
+      </c>
+      <c r="P26">
+        <v>0.3855869467978643</v>
+      </c>
+      <c r="Q26">
+        <v>7.655196606327165</v>
+      </c>
+      <c r="R26">
+        <v>45.931179637963</v>
+      </c>
+      <c r="S26">
+        <v>0.003689399983865942</v>
+      </c>
+      <c r="T26">
+        <v>0.003287653420782973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.240679</v>
+      </c>
+      <c r="I27">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J27">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>16.807086</v>
+      </c>
+      <c r="N27">
+        <v>50.42125799999999</v>
+      </c>
+      <c r="O27">
+        <v>0.08047776712105316</v>
+      </c>
+      <c r="P27">
+        <v>0.1018747601737145</v>
+      </c>
+      <c r="Q27">
+        <v>1.348370883798</v>
+      </c>
+      <c r="R27">
+        <v>12.135337954182</v>
+      </c>
+      <c r="S27">
+        <v>0.0006498434687905963</v>
+      </c>
+      <c r="T27">
+        <v>0.0008686209597031217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.240679</v>
+      </c>
+      <c r="I28">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J28">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>24.47797766666666</v>
+      </c>
+      <c r="N28">
+        <v>73.433933</v>
+      </c>
+      <c r="O28">
+        <v>0.117208478986324</v>
+      </c>
+      <c r="P28">
+        <v>0.1483712348666036</v>
+      </c>
+      <c r="Q28">
+        <v>1.963778395611889</v>
+      </c>
+      <c r="R28">
+        <v>17.674005560507</v>
+      </c>
+      <c r="S28">
+        <v>0.0009464373488590118</v>
+      </c>
+      <c r="T28">
+        <v>0.001265066677972111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.240679</v>
+      </c>
+      <c r="I29">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J29">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>36.17031</v>
+      </c>
+      <c r="N29">
+        <v>72.34062</v>
+      </c>
+      <c r="O29">
+        <v>0.1731951502405771</v>
+      </c>
+      <c r="P29">
+        <v>0.1461622261252945</v>
+      </c>
+      <c r="Q29">
+        <v>2.90181134683</v>
+      </c>
+      <c r="R29">
+        <v>17.41086808098</v>
+      </c>
+      <c r="S29">
+        <v>0.001398519631400184</v>
+      </c>
+      <c r="T29">
+        <v>0.00124623187247567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.487268</v>
-      </c>
-      <c r="H25">
-        <v>1.461804</v>
-      </c>
-      <c r="I25">
-        <v>0.04352166345308978</v>
-      </c>
-      <c r="J25">
-        <v>0.04694211854808148</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>35.54054833333333</v>
-      </c>
-      <c r="N25">
-        <v>106.621645</v>
-      </c>
-      <c r="O25">
-        <v>0.09443141874256437</v>
-      </c>
-      <c r="P25">
-        <v>0.1144889964762942</v>
-      </c>
-      <c r="Q25">
-        <v>17.31777190528666</v>
-      </c>
-      <c r="R25">
-        <v>155.85994714758</v>
-      </c>
-      <c r="S25">
-        <v>0.004109812425911681</v>
-      </c>
-      <c r="T25">
-        <v>0.005374356045041083</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.240679</v>
+      </c>
+      <c r="I30">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J30">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.119321333333334</v>
+      </c>
+      <c r="N30">
+        <v>24.357964</v>
+      </c>
+      <c r="O30">
+        <v>0.03887793823658658</v>
+      </c>
+      <c r="P30">
+        <v>0.04921459398771786</v>
+      </c>
+      <c r="Q30">
+        <v>0.6513833797284444</v>
+      </c>
+      <c r="R30">
+        <v>5.862450417555999</v>
+      </c>
+      <c r="S30">
+        <v>0.0003139323461234638</v>
+      </c>
+      <c r="T30">
+        <v>0.0004196213840220744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.240679</v>
+      </c>
+      <c r="I31">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J31">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>27.84666233333333</v>
+      </c>
+      <c r="N31">
+        <v>83.539987</v>
+      </c>
+      <c r="O31">
+        <v>0.1333388313929376</v>
+      </c>
+      <c r="P31">
+        <v>0.1687902380488052</v>
+      </c>
+      <c r="Q31">
+        <v>2.234035614574777</v>
+      </c>
+      <c r="R31">
+        <v>20.106320531173</v>
+      </c>
+      <c r="S31">
+        <v>0.001076687038129856</v>
+      </c>
+      <c r="T31">
+        <v>0.001439166465888779</v>
       </c>
     </row>
   </sheetData>
